--- a/data/trans_bre/MCS12_SP_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.334706707466285</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12.00665165079663</v>
+        <v>12.00665165079662</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06736039103657857</v>
@@ -649,7 +649,7 @@
         <v>0.09463043700061533</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2410181445575006</v>
+        <v>0.2410181445575003</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5070705215918733</v>
+        <v>-0.4517843584066178</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.332372967545775</v>
+        <v>8.261603069298628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6968369818908901</v>
+        <v>0.3482651954534722</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.88617253283812</v>
+        <v>7.319512919847748</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.007852331278875333</v>
+        <v>-0.008390835185083448</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1479560128410016</v>
+        <v>0.1483889173638546</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01314411897111152</v>
+        <v>0.006111721052257961</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1495375690448036</v>
+        <v>0.138458615314547</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.331716445402868</v>
+        <v>8.068464274324903</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.3941470545395</v>
+        <v>16.44034984805417</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.2793800399503</v>
+        <v>10.10961245133502</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.15237744800188</v>
+        <v>17.1523087869516</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1438923242321645</v>
+        <v>0.1608168006777355</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3193552464647297</v>
+        <v>0.3178841672560055</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1943635679772451</v>
+        <v>0.1909894268249631</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3691425711492852</v>
+        <v>0.3718309463300438</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.588521112296669</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.295565028798917</v>
+        <v>7.295565028798901</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3623442834714163</v>
@@ -749,7 +749,7 @@
         <v>0.1432388262492422</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1824786854987628</v>
+        <v>0.1824786854987623</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>10.4792864676933</v>
+        <v>10.83188460738875</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.280164736407793</v>
+        <v>9.032234748582686</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.227087156967295</v>
+        <v>3.231797559616231</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.17870716464685</v>
+        <v>4.185646910305704</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2582956057681167</v>
+        <v>0.2656202068397199</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1921363348255543</v>
+        <v>0.1848963161277614</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06655085238951002</v>
+        <v>0.06808504785047857</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1007137201792595</v>
+        <v>0.1031038387263449</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.54941105767706</v>
+        <v>17.52357603840678</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.85596887018993</v>
+        <v>15.89203529866375</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.628449004201581</v>
+        <v>9.841270519878496</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.49753434741345</v>
+        <v>10.31115684240478</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4762192588293474</v>
+        <v>0.474801555900953</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3512230721811737</v>
+        <v>0.3476838638258717</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2176302967225159</v>
+        <v>0.2235747196142478</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2749106509820444</v>
+        <v>0.2717879722845</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.34840829106953</v>
+        <v>7.250930414596504</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.285771517714394</v>
+        <v>2.035928403278531</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2386570231714731</v>
+        <v>0.2286710410808396</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.441217858413523</v>
+        <v>2.441245255605156</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1958689492491144</v>
+        <v>0.1772421514571194</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05052433808758385</v>
+        <v>0.04172383466907833</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.004383384301662081</v>
+        <v>0.006589154382544882</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.03163504538328251</v>
+        <v>0.05841355818694384</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.65797885949783</v>
+        <v>20.04835221555194</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.16319376362307</v>
+        <v>16.01789717889268</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.02980033460377</v>
+        <v>12.35132972206768</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.84594087023589</v>
+        <v>12.60176260561632</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5689153664933621</v>
+        <v>0.5757865338856121</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3949760127493284</v>
+        <v>0.381255610536567</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2898678080587306</v>
+        <v>0.3105860361706552</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3310713533992002</v>
+        <v>0.3355608838947559</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.743834381756786</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.924650996388555</v>
+        <v>8.924650996388571</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2536280142677875</v>
@@ -949,7 +949,7 @@
         <v>0.1401806089407172</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2131733228341388</v>
+        <v>0.2131733228341392</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.496454864786944</v>
+        <v>8.27186963883392</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10.31282465533325</v>
+        <v>10.3794006391798</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.34424374248727</v>
+        <v>4.358912346610091</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.221664558129934</v>
+        <v>6.747831637511767</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1920058099459528</v>
+        <v>0.1845962940528817</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2040962606248059</v>
+        <v>0.2048340207056084</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08693616910806765</v>
+        <v>0.08887918481325784</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1451170378587893</v>
+        <v>0.1551428177154694</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.3513091884383</v>
+        <v>13.39761422977383</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.35850641220332</v>
+        <v>15.32708361602609</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.257194212083347</v>
+        <v>9.320803157740141</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.15079229772805</v>
+        <v>11.28250197767195</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3196240248528751</v>
+        <v>0.3200201187212331</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3218569219685474</v>
+        <v>0.3216459862836644</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.196719313680149</v>
+        <v>0.1988957938936287</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2736426556436629</v>
+        <v>0.2790562353725564</v>
       </c>
     </row>
     <row r="16">
